--- a/_tu_helper/_Wiki/_Odoo/Simbioz/Требования по позициям разработчиков.xlsx
+++ b/_tu_helper/_Wiki/_Odoo/Simbioz/Требования по позициям разработчиков.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="Junior Developer" sheetId="1" r:id="rId1"/>
@@ -955,25 +955,6 @@
     <t>- Базовое понимание в js frontend части. OWL. Виджеты, как наследуются (расширяет) и т.д. Хотя бы базовое понимание</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Добавить в вашу модель разные типы полей (список рядом)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Применить трекинг на изменение поля. Чтоб изменение поля отображалось в чатере обьекта</t>
-    </r>
-  </si>
-  <si>
     <t>Создать констрейнс функцию (с декаратором api.constrains)</t>
   </si>
   <si>
@@ -1498,12 +1479,28 @@
       <t>json-rpc</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Добавить в вашу модель разные типы полей (список рядом)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Применить трекинг на изменение поля. Чтоб изменение поля отображалось в чатере обьекта</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1646,6 +1643,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1832,29 +1836,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1880,6 +1865,25 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2102,9 +2106,9 @@
   </sheetPr>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C24:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2129,10 +2133,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2143,17 +2147,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>77</v>
+      <c r="C3" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2171,7 +2175,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2181,19 +2185,19 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2217,13 +2221,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2235,7 +2239,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
@@ -2247,7 +2251,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2257,69 +2261,69 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>79</v>
+      <c r="C15" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>80</v>
+      <c r="C16" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>81</v>
+      <c r="C17" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>82</v>
+      <c r="C18" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>83</v>
+      <c r="C19" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2329,17 +2333,17 @@
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>84</v>
+      <c r="C21" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2351,19 +2355,19 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2371,11 +2375,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2383,13 +2387,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
@@ -2401,7 +2405,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="13" t="s">
         <v>53</v>
       </c>
@@ -2411,7 +2415,7 @@
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="13" t="s">
         <v>55</v>
       </c>
@@ -2421,7 +2425,7 @@
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="13" t="s">
         <v>57</v>
       </c>
@@ -6415,7 +6419,7 @@
   </sheetPr>
   <dimension ref="A1:D1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -6437,25 +6441,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>85</v>
+      <c r="B2" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="30" t="s">
-        <v>86</v>
+      <c r="A3" s="27"/>
+      <c r="B3" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
@@ -6463,7 +6467,7 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
@@ -6471,15 +6475,15 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
         <v>62</v>
       </c>
@@ -6487,65 +6491,65 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="29" t="s">
-        <v>88</v>
+      <c r="A8" s="26"/>
+      <c r="B8" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="24" t="s">
-        <v>87</v>
+      <c r="B9" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6554,56 +6558,56 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>91</v>
+      <c r="B19" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="33" t="s">
-        <v>92</v>
+      <c r="A20" s="26"/>
+      <c r="B20" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="28" t="s">
-        <v>93</v>
+      <c r="B22" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="6"/>
@@ -6611,7 +6615,7 @@
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="6"/>
@@ -6633,7 +6637,7 @@
     </row>
     <row r="28" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="6"/>
@@ -6641,15 +6645,15 @@
     </row>
     <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="26" t="s">
-        <v>94</v>
+      <c r="B29" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="6"/>
@@ -6665,7 +6669,7 @@
     </row>
     <row r="32" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="6"/>
